--- a/mockups/pivot mockup.xlsx
+++ b/mockups/pivot mockup.xlsx
@@ -2701,39 +2701,39 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G7" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K7" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M7" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -2743,31 +2743,31 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H8" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I8" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L8" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M8" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
@@ -2782,19 +2782,19 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H9" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I9" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J9" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
@@ -2802,11 +2802,11 @@
       </c>
       <c r="L9" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -2818,23 +2818,23 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J10" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K10" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L10" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
@@ -2850,15 +2850,15 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J11" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K11" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
@@ -2866,11 +2866,11 @@
       </c>
       <c r="L11" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M11" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -2884,19 +2884,19 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K12" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L12" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -2911,15 +2911,15 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -2935,7 +2935,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M14" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
@@ -2950,39 +2950,39 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F15" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G15" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H15" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I15" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J15" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K15" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M15" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -2991,27 +2991,27 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G16" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H16" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K16" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
@@ -3019,11 +3019,11 @@
       </c>
       <c r="L16" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M16" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -3034,31 +3034,31 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H17" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I17" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J17" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K17" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L17" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M17" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -3072,16 +3072,16 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M18" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -3115,7 +3115,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -3149,7 +3149,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -3163,39 +3163,39 @@
       </c>
       <c r="E23" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F23" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G23" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H23" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I23" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J23" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K23" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L23" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M23" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -3203,11 +3203,11 @@
       <c r="C24" s="1"/>
       <c r="D24" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F24" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
@@ -3215,11 +3215,11 @@
       </c>
       <c r="G24" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H24" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I24" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
@@ -3231,15 +3231,15 @@
       </c>
       <c r="K24" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L24" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M24" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -3247,11 +3247,11 @@
       <c r="C25" s="1"/>
       <c r="D25" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E25" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F25" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
@@ -3259,23 +3259,23 @@
       </c>
       <c r="G25" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H25" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I25" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J25" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K25" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L25" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="M25" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -3291,35 +3291,35 @@
       <c r="C26" s="1"/>
       <c r="D26" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E26" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F26" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H26" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I26" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J26" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="M26" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -3335,19 +3335,19 @@
       <c r="C27" s="1"/>
       <c r="D27" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E27" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F27" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G27" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H27" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
@@ -3355,16 +3355,16 @@
       </c>
       <c r="I27" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L27" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M27" s="2"/>
     </row>
@@ -3373,15 +3373,15 @@
       <c r="C28" s="1"/>
       <c r="D28" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E28" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F28" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -3390,7 +3390,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M28" s="2"/>
     </row>
@@ -3399,7 +3399,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -3416,7 +3416,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -3435,19 +3435,19 @@
       </c>
       <c r="D31" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E31" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F31" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G31" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H31" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
@@ -3455,11 +3455,11 @@
       </c>
       <c r="I31" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J31" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K31" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
@@ -3467,11 +3467,11 @@
       </c>
       <c r="L31" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M31" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -3483,31 +3483,31 @@
       </c>
       <c r="E32" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F32" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G32" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H32" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I32" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K32" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L32" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="M32" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -3523,31 +3523,31 @@
       <c r="C33" s="1"/>
       <c r="D33" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E33" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F33" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G33" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H33" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I33" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J33" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K33" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
@@ -3555,11 +3555,11 @@
       </c>
       <c r="L33" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M33" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -3567,40 +3567,40 @@
       <c r="C34" s="1"/>
       <c r="D34" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E34" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I34" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J34" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K34" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L34" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M34" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -3617,11 +3617,11 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K35" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L35" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="M35" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -3638,7 +3638,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -3656,31 +3656,31 @@
       </c>
       <c r="D37" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E37" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F37" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G37" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H37" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I37" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J37" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K37" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
@@ -3688,11 +3688,11 @@
       </c>
       <c r="L37" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M37" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="2:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -3700,11 +3700,11 @@
       <c r="C38" s="1"/>
       <c r="D38" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E38" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F38" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="G38" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H38" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
@@ -3720,15 +3720,15 @@
       </c>
       <c r="I38" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J38" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K38" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L38" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
@@ -3736,7 +3736,7 @@
       </c>
       <c r="M38" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -3748,15 +3748,15 @@
       </c>
       <c r="E39" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F39" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G39" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H39" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
@@ -3764,15 +3764,15 @@
       </c>
       <c r="I39" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J39" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K39" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L39" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
@@ -3788,27 +3788,27 @@
       <c r="C40" s="1"/>
       <c r="D40" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E40" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F40" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G40" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H40" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I40" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J40" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
@@ -3816,15 +3816,15 @@
       </c>
       <c r="K40" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L40" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M40" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="2:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -3834,32 +3834,32 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G41" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J41" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K41" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L41" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M41" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -3869,16 +3869,16 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G42" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2">
@@ -3887,7 +3887,7 @@
       </c>
       <c r="L42" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M42" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
@@ -3902,7 +3902,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -3910,11 +3910,11 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M43" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="2:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -3925,7 +3925,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -3934,7 +3934,7 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3983,7 +3983,7 @@
   <dimension ref="B5:AO16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4115,61 +4115,61 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2">
         <f t="shared" ref="G7:AO13" ca="1" si="0">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AA7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ7" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4177,7 +4177,7 @@
       </c>
       <c r="AK7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
@@ -4192,7 +4192,7 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" ref="D8:D16" ca="1" si="1">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -4203,11 +4203,11 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -4217,7 +4217,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4225,61 +4225,61 @@
       </c>
       <c r="V8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" ref="AG8" ca="1" si="2">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AI8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AK8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
@@ -4294,7 +4294,7 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:F14" ca="1" si="3">RANDBETWEEN(1,7)</f>
@@ -4308,11 +4308,11 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -4322,15 +4322,15 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W9" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4338,55 +4338,55 @@
       </c>
       <c r="X9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AL9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
@@ -4403,11 +4403,11 @@
       </c>
       <c r="E10" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -4416,15 +4416,15 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -4433,19 +4433,19 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X10" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4456,34 +4456,34 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AD10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AK10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL10" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4491,15 +4491,15 @@
       </c>
       <c r="AM10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:41" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -4510,34 +4510,34 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4550,11 +4550,11 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V11" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4562,18 +4562,18 @@
       </c>
       <c r="W11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AC11" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4581,29 +4581,29 @@
       </c>
       <c r="AD11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AK11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
@@ -4618,11 +4618,11 @@
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -4630,18 +4630,18 @@
       </c>
       <c r="G12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4658,11 +4658,11 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V12" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4670,26 +4670,26 @@
       </c>
       <c r="W12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE12" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4699,27 +4699,27 @@
       <c r="AG12" s="2"/>
       <c r="AH12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AI12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AK12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
@@ -4732,45 +4732,45 @@
       </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -4778,19 +4778,19 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
@@ -4802,11 +4802,11 @@
       </c>
       <c r="AC13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE13" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4814,28 +4814,28 @@
       </c>
       <c r="AF13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2">
         <f t="shared" ref="AH13:AO16" ca="1" si="4">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI13" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ13" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK13" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL13" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM13" s="2"/>
       <c r="AN13" s="2"/>
@@ -4849,31 +4849,31 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" ref="G14:V16" ca="1" si="5">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2">
@@ -4882,11 +4882,11 @@
       </c>
       <c r="M14" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -4895,7 +4895,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U14" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -4903,34 +4903,34 @@
       </c>
       <c r="V14" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W14" s="2">
         <f t="shared" ref="W14:AJ16" ca="1" si="6">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X14" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC14" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD14" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF14" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -4939,11 +4939,11 @@
       <c r="AG14" s="2"/>
       <c r="AH14" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AI14" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ14" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -4951,15 +4951,15 @@
       </c>
       <c r="AK14" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL14" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM14" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
@@ -4972,39 +4972,39 @@
       </c>
       <c r="D15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" ref="E15:F16" ca="1" si="7">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -5016,7 +5016,7 @@
       </c>
       <c r="O15" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -5024,78 +5024,78 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U15" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V15" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W15" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X15" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC15" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AD15" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE15" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF15" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI15" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ15" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AK15" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL15" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AM15" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AN15" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO15" s="2"/>
     </row>
@@ -5107,7 +5107,7 @@
       </c>
       <c r="D16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="7"/>
@@ -5115,19 +5115,19 @@
       </c>
       <c r="F16" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -5139,19 +5139,19 @@
       </c>
       <c r="L16" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="Q16" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -5167,11 +5167,11 @@
       </c>
       <c r="S16" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T16" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U16" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="V16" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W16" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -5191,28 +5191,28 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC16" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD16" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE16" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF16" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI16" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -5220,27 +5220,27 @@
       </c>
       <c r="AJ16" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK16" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL16" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM16" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AN16" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO16" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
